--- a/Test Cases/FAQ_Test_Cases.xlsx
+++ b/Test Cases/FAQ_Test_Cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\ssdms\trunk\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Created By</t>
-  </si>
-  <si>
-    <t>Arjita Bhargava</t>
   </si>
   <si>
     <t>Date of Creation</t>
@@ -1511,6 +1508,9 @@
   </si>
   <si>
     <t>TS_SSDMS_FAQ_226</t>
+  </si>
+  <si>
+    <t>Arjita Bhargava, Shubham Jain</t>
   </si>
 </sst>
 </file>
@@ -2090,48 +2090,12 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2140,9 +2104,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2160,42 +2121,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2203,9 +2143,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2215,13 +2152,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2233,30 +2164,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2264,116 +2180,210 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="9" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="9" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="12" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="12" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="15" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="17" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2383,25 +2393,15 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent2" xfId="4" builtinId="34"/>
@@ -2477,15 +2477,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>1089</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>69669</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1188720</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>831669</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>44631</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2527,15 +2527,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9113520</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>9114609</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>69669</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9883140</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>9655629</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>44631</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2618,7 +2618,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2670,7 +2670,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2875,8 +2875,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A218" sqref="A218:G226"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2891,301 +2891,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="106" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="109"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="89" t="s">
+        <v>405</v>
+      </c>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="91"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="88"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="57" t="s">
+      <c r="A8" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="85"/>
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C9" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
-      <c r="B9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="63"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="18" t="s">
-        <v>19</v>
+      <c r="A10" s="85"/>
+      <c r="B10" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="63"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
-      <c r="B11" s="18" t="s">
-        <v>20</v>
+      <c r="A11" s="85"/>
+      <c r="B11" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="63"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="62"/>
-      <c r="B12" s="18" t="s">
-        <v>21</v>
+      <c r="A12" s="85"/>
+      <c r="B12" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="63"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
-      <c r="B13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>41</v>
+      <c r="A13" s="85"/>
+      <c r="B13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="63"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
-      <c r="B14" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>44</v>
+      <c r="A14" s="85"/>
+      <c r="B14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="63"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
-      <c r="B15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>37</v>
+      <c r="A15" s="85"/>
+      <c r="B15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="63"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="62"/>
-      <c r="B16" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>45</v>
+      <c r="A16" s="85"/>
+      <c r="B16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="63"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="62"/>
-      <c r="B17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>38</v>
+      <c r="A17" s="85"/>
+      <c r="B17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="63"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="62"/>
-      <c r="B18" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>39</v>
+      <c r="A18" s="85"/>
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="63"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="62"/>
-      <c r="B19" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>40</v>
+      <c r="A19" s="85"/>
+      <c r="B19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="63"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="64"/>
-      <c r="B20" s="65" t="s">
+      <c r="A20" s="86"/>
+      <c r="B20" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="69"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="52" t="s">
+      <c r="C21" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="94"/>
+      <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>49</v>
+      <c r="C22" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -3193,185 +3193,185 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="77"/>
-      <c r="B23" s="78" t="s">
+      <c r="A23" s="95"/>
+      <c r="B23" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="57" t="s">
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="97"/>
+      <c r="B25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C25" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="74"/>
-      <c r="B25" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>52</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="63"/>
+      <c r="G25" s="41"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="74"/>
-      <c r="B26" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>159</v>
+      <c r="A26" s="97"/>
+      <c r="B26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="63"/>
+      <c r="G26" s="41"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="74"/>
-      <c r="B27" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>53</v>
+      <c r="A27" s="97"/>
+      <c r="B27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="63"/>
+      <c r="G27" s="41"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="74"/>
-      <c r="B28" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>54</v>
+      <c r="A28" s="97"/>
+      <c r="B28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="63"/>
+      <c r="G28" s="41"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="74"/>
-      <c r="B29" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>55</v>
+      <c r="A29" s="97"/>
+      <c r="B29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="63"/>
+      <c r="G29" s="41"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="74"/>
-      <c r="B30" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>56</v>
+      <c r="A30" s="97"/>
+      <c r="B30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="63"/>
+      <c r="G30" s="41"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="74"/>
-      <c r="B31" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>57</v>
+      <c r="A31" s="97"/>
+      <c r="B31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="63"/>
+      <c r="G31" s="41"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="74"/>
-      <c r="B32" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>58</v>
+      <c r="A32" s="97"/>
+      <c r="B32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="63"/>
+      <c r="G32" s="41"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="74"/>
-      <c r="B33" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>59</v>
+      <c r="A33" s="97"/>
+      <c r="B33" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="63"/>
+      <c r="G33" s="41"/>
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="75"/>
-      <c r="B34" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="69"/>
+      <c r="A34" s="98"/>
+      <c r="B34" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="46"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="100"/>
+      <c r="B36" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
-      <c r="B36" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>52</v>
+      <c r="C36" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3379,12 +3379,12 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
-      <c r="B37" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>160</v>
+      <c r="A37" s="100"/>
+      <c r="B37" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3392,12 +3392,12 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
-      <c r="B38" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>73</v>
+      <c r="A38" s="100"/>
+      <c r="B38" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3405,12 +3405,12 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
-      <c r="B39" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>74</v>
+      <c r="A39" s="100"/>
+      <c r="B39" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3418,12 +3418,12 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>75</v>
+      <c r="A40" s="100"/>
+      <c r="B40" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -3431,12 +3431,12 @@
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
-      <c r="B41" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>76</v>
+      <c r="A41" s="100"/>
+      <c r="B41" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -3444,12 +3444,12 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>77</v>
+      <c r="A42" s="100"/>
+      <c r="B42" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -3457,12 +3457,12 @@
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
-      <c r="B43" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>78</v>
+      <c r="A43" s="100"/>
+      <c r="B43" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -3470,12 +3470,12 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
-      <c r="B44" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>60</v>
+      <c r="A44" s="100"/>
+      <c r="B44" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -3483,183 +3483,183 @@
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="81"/>
-      <c r="B45" s="78" t="s">
+      <c r="A45" s="101"/>
+      <c r="B45" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="102" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" s="57" t="s">
+      <c r="C46" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="40"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="103"/>
+      <c r="B47" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="85" t="s">
-        <v>174</v>
-      </c>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="61"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="86"/>
-      <c r="B47" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>91</v>
+      <c r="C47" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="63"/>
+      <c r="G47" s="41"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="86"/>
-      <c r="B48" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>175</v>
+      <c r="A48" s="103"/>
+      <c r="B48" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="63"/>
+      <c r="G48" s="41"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="86"/>
-      <c r="B49" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>94</v>
+      <c r="A49" s="103"/>
+      <c r="B49" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="63"/>
+      <c r="G49" s="41"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="86"/>
-      <c r="B50" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="30"/>
+      <c r="A50" s="103"/>
+      <c r="B50" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="17"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="63"/>
+      <c r="G50" s="41"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="86"/>
-      <c r="B51" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>92</v>
+      <c r="A51" s="103"/>
+      <c r="B51" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="63"/>
+      <c r="G51" s="41"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="86"/>
-      <c r="B52" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>93</v>
+      <c r="A52" s="103"/>
+      <c r="B52" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="63"/>
+      <c r="G52" s="41"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="86"/>
-      <c r="B53" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>96</v>
+      <c r="A53" s="103"/>
+      <c r="B53" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="63"/>
+      <c r="G53" s="41"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="86"/>
-      <c r="B54" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>95</v>
+      <c r="A54" s="103"/>
+      <c r="B54" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="63"/>
+      <c r="G54" s="41"/>
     </row>
     <row r="55" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="86"/>
-      <c r="B55" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>97</v>
+      <c r="A55" s="103"/>
+      <c r="B55" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="63"/>
+      <c r="G55" s="41"/>
     </row>
     <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="87"/>
-      <c r="B56" s="65" t="s">
+      <c r="A56" s="104"/>
+      <c r="B56" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="46"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="88" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="69"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="89" t="s">
+      <c r="C57" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="80"/>
+      <c r="B58" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="B57" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" s="83" t="s">
-        <v>176</v>
-      </c>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="89"/>
-      <c r="B58" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>111</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -3667,12 +3667,12 @@
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="89"/>
-      <c r="B59" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>175</v>
+      <c r="A59" s="80"/>
+      <c r="B59" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>174</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -3680,12 +3680,12 @@
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="89"/>
-      <c r="B60" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C60" s="31" t="s">
-        <v>112</v>
+      <c r="A60" s="80"/>
+      <c r="B60" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -3693,12 +3693,12 @@
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="89"/>
-      <c r="B61" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>113</v>
+      <c r="A61" s="80"/>
+      <c r="B61" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -3706,12 +3706,12 @@
       <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="89"/>
-      <c r="B62" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="31" t="s">
-        <v>93</v>
+      <c r="A62" s="80"/>
+      <c r="B62" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -3719,12 +3719,12 @@
       <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="89"/>
-      <c r="B63" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>96</v>
+      <c r="A63" s="80"/>
+      <c r="B63" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -3732,12 +3732,12 @@
       <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="89"/>
-      <c r="B64" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>114</v>
+      <c r="A64" s="80"/>
+      <c r="B64" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -3745,12 +3745,12 @@
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="89"/>
-      <c r="B65" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C65" s="31" t="s">
-        <v>78</v>
+      <c r="A65" s="80"/>
+      <c r="B65" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -3758,185 +3758,185 @@
       <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="89"/>
-      <c r="B66" s="78" t="s">
+      <c r="A66" s="80"/>
+      <c r="B66" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="90" t="s">
-        <v>115</v>
-      </c>
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="80"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="B67" s="57" t="s">
+      <c r="C67" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="40"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="82"/>
+      <c r="B68" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C67" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="61"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="94"/>
-      <c r="B68" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C68" s="29" t="s">
-        <v>174</v>
+      <c r="C68" s="16" t="s">
+        <v>173</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="63"/>
+      <c r="G68" s="41"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="94"/>
-      <c r="B69" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C69" s="32" t="s">
-        <v>161</v>
+      <c r="A69" s="82"/>
+      <c r="B69" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="63"/>
+      <c r="G69" s="41"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="94"/>
-      <c r="B70" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C70" s="29" t="s">
-        <v>126</v>
+      <c r="A70" s="82"/>
+      <c r="B70" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="63"/>
+      <c r="G70" s="41"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="94"/>
-      <c r="B71" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>127</v>
+      <c r="A71" s="82"/>
+      <c r="B71" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="63"/>
+      <c r="G71" s="41"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="94"/>
-      <c r="B72" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C72" s="29" t="s">
-        <v>93</v>
+      <c r="A72" s="82"/>
+      <c r="B72" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="63"/>
+      <c r="G72" s="41"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="94"/>
-      <c r="B73" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>128</v>
+      <c r="A73" s="82"/>
+      <c r="B73" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="63"/>
+      <c r="G73" s="41"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="94"/>
-      <c r="B74" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C74" s="29" t="s">
-        <v>97</v>
+      <c r="A74" s="82"/>
+      <c r="B74" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="63"/>
+      <c r="G74" s="41"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="94"/>
-      <c r="B75" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C75" s="29" t="s">
-        <v>129</v>
+      <c r="A75" s="82"/>
+      <c r="B75" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="63"/>
+      <c r="G75" s="41"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="94"/>
-      <c r="B76" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>130</v>
+      <c r="A76" s="82"/>
+      <c r="B76" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="63"/>
+      <c r="G76" s="41"/>
     </row>
     <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="95"/>
-      <c r="B77" s="65" t="s">
+      <c r="A77" s="83"/>
+      <c r="B77" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="46"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="C77" s="88" t="s">
-        <v>131</v>
-      </c>
-      <c r="D77" s="68"/>
-      <c r="E77" s="68"/>
-      <c r="F77" s="68"/>
-      <c r="G77" s="69"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="B78" s="53" t="s">
+      <c r="C78" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="94"/>
+      <c r="B79" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C78" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="D78" s="55"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="55"/>
-      <c r="G78" s="55"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="20"/>
-      <c r="B79" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="C79" s="33" t="s">
-        <v>174</v>
+      <c r="C79" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -3944,12 +3944,12 @@
       <c r="G79" s="4"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="20"/>
-      <c r="B80" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="C80" s="33" t="s">
-        <v>175</v>
+      <c r="A80" s="94"/>
+      <c r="B80" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>174</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -3957,12 +3957,12 @@
       <c r="G80" s="4"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="20"/>
-      <c r="B81" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C81" s="33" t="s">
-        <v>143</v>
+      <c r="A81" s="94"/>
+      <c r="B81" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>142</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -3970,12 +3970,12 @@
       <c r="G81" s="4"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="20"/>
-      <c r="B82" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C82" s="33" t="s">
-        <v>144</v>
+      <c r="A82" s="94"/>
+      <c r="B82" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>143</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -3983,12 +3983,12 @@
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="20"/>
-      <c r="B83" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="C83" s="33" t="s">
-        <v>93</v>
+      <c r="A83" s="94"/>
+      <c r="B83" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -3996,12 +3996,12 @@
       <c r="G83" s="4"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="20"/>
-      <c r="B84" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C84" s="33" t="s">
-        <v>145</v>
+      <c r="A84" s="94"/>
+      <c r="B84" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>144</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -4009,12 +4009,12 @@
       <c r="G84" s="4"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="20"/>
-      <c r="B85" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C85" s="33" t="s">
-        <v>97</v>
+      <c r="A85" s="94"/>
+      <c r="B85" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -4022,12 +4022,12 @@
       <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="20"/>
-      <c r="B86" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C86" s="33" t="s">
-        <v>130</v>
+      <c r="A86" s="94"/>
+      <c r="B86" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -4035,172 +4035,172 @@
       <c r="G86" s="4"/>
     </row>
     <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="77"/>
-      <c r="B87" s="78" t="s">
+      <c r="A87" s="95"/>
+      <c r="B87" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="C87" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="D87" s="52"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="52"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="124" t="s">
+        <v>266</v>
+      </c>
+      <c r="B88" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="C87" s="96" t="s">
-        <v>129</v>
-      </c>
-      <c r="D87" s="80"/>
-      <c r="E87" s="80"/>
-      <c r="F87" s="80"/>
-      <c r="G87" s="80"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="99" t="s">
+      <c r="C88" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="B88" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="C88" s="100" t="s">
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="40"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="125"/>
+      <c r="B89" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C89" s="21" t="s">
         <v>268</v>
-      </c>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="61"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="101"/>
-      <c r="B89" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C89" s="34" t="s">
-        <v>269</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="63"/>
+      <c r="G89" s="41"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="101"/>
-      <c r="B90" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="C90" s="34" t="s">
-        <v>270</v>
+      <c r="A90" s="125"/>
+      <c r="B90" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>269</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="63"/>
+      <c r="G90" s="41"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="101"/>
-      <c r="B91" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="C91" s="34" t="s">
-        <v>271</v>
+      <c r="A91" s="125"/>
+      <c r="B91" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>270</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="63"/>
+      <c r="G91" s="41"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="101"/>
-      <c r="B92" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C92" s="34" t="s">
-        <v>272</v>
+      <c r="A92" s="125"/>
+      <c r="B92" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>271</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="63"/>
+      <c r="G92" s="41"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="101"/>
-      <c r="B93" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C93" s="34" t="s">
-        <v>273</v>
+      <c r="A93" s="125"/>
+      <c r="B93" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>272</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="63"/>
+      <c r="G93" s="41"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="101"/>
-      <c r="B94" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C94" s="34" t="s">
-        <v>274</v>
+      <c r="A94" s="125"/>
+      <c r="B94" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>273</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="63"/>
+      <c r="G94" s="41"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="101"/>
-      <c r="B95" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C95" s="34" t="s">
-        <v>275</v>
+      <c r="A95" s="125"/>
+      <c r="B95" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>274</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="63"/>
+      <c r="G95" s="41"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="101"/>
-      <c r="B96" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C96" s="34" t="s">
-        <v>97</v>
+      <c r="A96" s="125"/>
+      <c r="B96" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="63"/>
+      <c r="G96" s="41"/>
     </row>
     <row r="97" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="102"/>
-      <c r="B97" s="65" t="s">
+      <c r="A97" s="126"/>
+      <c r="B97" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="D97" s="45"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="45"/>
+      <c r="G97" s="46"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="115" t="s">
+        <v>154</v>
+      </c>
+      <c r="B98" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="C97" s="103" t="s">
-        <v>129</v>
-      </c>
-      <c r="D97" s="68"/>
-      <c r="E97" s="68"/>
-      <c r="F97" s="68"/>
-      <c r="G97" s="69"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="97" t="s">
-        <v>155</v>
-      </c>
-      <c r="B98" s="53" t="s">
+      <c r="C98" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="116"/>
+      <c r="B99" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C98" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="D98" s="55"/>
-      <c r="E98" s="55"/>
-      <c r="F98" s="55"/>
-      <c r="G98" s="55"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="35"/>
-      <c r="B99" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C99" s="36" t="s">
-        <v>174</v>
+      <c r="C99" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -4208,12 +4208,12 @@
       <c r="G99" s="4"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="35"/>
-      <c r="B100" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="C100" s="36" t="s">
-        <v>161</v>
+      <c r="A100" s="116"/>
+      <c r="B100" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>160</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -4221,12 +4221,12 @@
       <c r="G100" s="4"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="35"/>
-      <c r="B101" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C101" s="36" t="s">
-        <v>156</v>
+      <c r="A101" s="116"/>
+      <c r="B101" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -4234,12 +4234,12 @@
       <c r="G101" s="4"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="35"/>
-      <c r="B102" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="C102" s="36" t="s">
-        <v>127</v>
+      <c r="A102" s="116"/>
+      <c r="B102" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -4247,12 +4247,12 @@
       <c r="G102" s="4"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="35"/>
-      <c r="B103" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="C103" s="36" t="s">
-        <v>157</v>
+      <c r="A103" s="116"/>
+      <c r="B103" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -4260,237 +4260,237 @@
       <c r="G103" s="4"/>
     </row>
     <row r="104" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="104"/>
-      <c r="B104" s="78" t="s">
+      <c r="A104" s="117"/>
+      <c r="B104" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="C104" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="D104" s="52"/>
+      <c r="E104" s="52"/>
+      <c r="F104" s="52"/>
+      <c r="G104" s="52"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="127" t="s">
+        <v>275</v>
+      </c>
+      <c r="B105" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="C104" s="105" t="s">
-        <v>158</v>
-      </c>
-      <c r="D104" s="80"/>
-      <c r="E104" s="80"/>
-      <c r="F104" s="80"/>
-      <c r="G104" s="80"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="108" t="s">
-        <v>276</v>
-      </c>
-      <c r="B105" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="C105" s="109" t="s">
+      <c r="C105" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="D105" s="39"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="39"/>
+      <c r="G105" s="40"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="128"/>
+      <c r="B106" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C106" s="23" t="s">
         <v>268</v>
-      </c>
-      <c r="D105" s="60"/>
-      <c r="E105" s="60"/>
-      <c r="F105" s="60"/>
-      <c r="G105" s="61"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="110"/>
-      <c r="B106" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="C106" s="37" t="s">
-        <v>269</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="63"/>
+      <c r="G106" s="41"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="110"/>
-      <c r="B107" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="C107" s="37" t="s">
-        <v>270</v>
+      <c r="A107" s="128"/>
+      <c r="B107" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C107" s="23" t="s">
+        <v>269</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="63"/>
+      <c r="G107" s="41"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="110"/>
-      <c r="B108" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="C108" s="37" t="s">
-        <v>277</v>
+      <c r="A108" s="128"/>
+      <c r="B108" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>276</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="63"/>
+      <c r="G108" s="41"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="110"/>
-      <c r="B109" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="C109" s="37" t="s">
-        <v>278</v>
+      <c r="A109" s="128"/>
+      <c r="B109" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>277</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="63"/>
+      <c r="G109" s="41"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="110"/>
-      <c r="B110" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C110" s="37" t="s">
-        <v>273</v>
+      <c r="A110" s="128"/>
+      <c r="B110" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>272</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="63"/>
+      <c r="G110" s="41"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="110"/>
-      <c r="B111" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="C111" s="37" t="s">
-        <v>279</v>
+      <c r="A111" s="128"/>
+      <c r="B111" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C111" s="23" t="s">
+        <v>278</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="63"/>
+      <c r="G111" s="41"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="110"/>
-      <c r="B112" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="C112" s="37" t="s">
-        <v>97</v>
+      <c r="A112" s="128"/>
+      <c r="B112" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="G112" s="63"/>
+      <c r="G112" s="41"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="110"/>
-      <c r="B113" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="C113" s="37" t="s">
-        <v>129</v>
+      <c r="A113" s="128"/>
+      <c r="B113" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="63"/>
+      <c r="G113" s="41"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="110"/>
-      <c r="B114" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="C114" s="37" t="s">
-        <v>280</v>
+      <c r="A114" s="128"/>
+      <c r="B114" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>279</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="63"/>
+      <c r="G114" s="41"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="110"/>
-      <c r="B115" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C115" s="37" t="s">
-        <v>281</v>
+      <c r="A115" s="128"/>
+      <c r="B115" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>280</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="G115" s="63"/>
+      <c r="G115" s="41"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="110"/>
-      <c r="B116" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="C116" s="37" t="s">
-        <v>282</v>
+      <c r="A116" s="128"/>
+      <c r="B116" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>281</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="G116" s="63"/>
+      <c r="G116" s="41"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="110"/>
-      <c r="B117" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C117" s="37" t="s">
-        <v>283</v>
+      <c r="A117" s="128"/>
+      <c r="B117" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C117" s="23" t="s">
+        <v>282</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
-      <c r="G117" s="63"/>
+      <c r="G117" s="41"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="110"/>
-      <c r="B118" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="C118" s="37" t="s">
-        <v>284</v>
+      <c r="A118" s="128"/>
+      <c r="B118" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>283</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="G118" s="63"/>
+      <c r="G118" s="41"/>
     </row>
     <row r="119" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="111"/>
-      <c r="B119" s="65" t="s">
+      <c r="A119" s="129"/>
+      <c r="B119" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C119" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="D119" s="45"/>
+      <c r="E119" s="45"/>
+      <c r="F119" s="45"/>
+      <c r="G119" s="46"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="118" t="s">
+        <v>167</v>
+      </c>
+      <c r="B120" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="C119" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="D119" s="68"/>
-      <c r="E119" s="68"/>
-      <c r="F119" s="68"/>
-      <c r="G119" s="69"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="106" t="s">
-        <v>168</v>
-      </c>
-      <c r="B120" s="53" t="s">
+      <c r="C120" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D120" s="35"/>
+      <c r="E120" s="35"/>
+      <c r="F120" s="35"/>
+      <c r="G120" s="35"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="119"/>
+      <c r="B121" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C120" s="107" t="s">
-        <v>111</v>
-      </c>
-      <c r="D120" s="55"/>
-      <c r="E120" s="55"/>
-      <c r="F120" s="55"/>
-      <c r="G120" s="55"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="38"/>
-      <c r="B121" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="C121" s="39" t="s">
-        <v>174</v>
+      <c r="C121" s="24" t="s">
+        <v>173</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -4498,12 +4498,12 @@
       <c r="G121" s="4"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="38"/>
-      <c r="B122" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="C122" s="39" t="s">
-        <v>161</v>
+      <c r="A122" s="119"/>
+      <c r="B122" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C122" s="24" t="s">
+        <v>160</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -4511,12 +4511,12 @@
       <c r="G122" s="4"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="38"/>
-      <c r="B123" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="C123" s="39" t="s">
-        <v>169</v>
+      <c r="A123" s="119"/>
+      <c r="B123" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>168</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -4524,159 +4524,159 @@
       <c r="G123" s="4"/>
     </row>
     <row r="124" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="113"/>
-      <c r="B124" s="78" t="s">
+      <c r="A124" s="120"/>
+      <c r="B124" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="C124" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="D124" s="52"/>
+      <c r="E124" s="52"/>
+      <c r="F124" s="52"/>
+      <c r="G124" s="52"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="130" t="s">
+        <v>285</v>
+      </c>
+      <c r="B125" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="C124" s="114" t="s">
-        <v>97</v>
-      </c>
-      <c r="D124" s="80"/>
-      <c r="E124" s="80"/>
-      <c r="F124" s="80"/>
-      <c r="G124" s="80"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="116" t="s">
-        <v>286</v>
-      </c>
-      <c r="B125" s="57" t="s">
+      <c r="C125" s="69" t="s">
+        <v>267</v>
+      </c>
+      <c r="D125" s="39"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="39"/>
+      <c r="G125" s="40"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="131"/>
+      <c r="B126" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C125" s="117" t="s">
+      <c r="C126" s="25" t="s">
         <v>268</v>
-      </c>
-      <c r="D125" s="60"/>
-      <c r="E125" s="60"/>
-      <c r="F125" s="60"/>
-      <c r="G125" s="61"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="118"/>
-      <c r="B126" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="C126" s="40" t="s">
-        <v>269</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
-      <c r="G126" s="63"/>
+      <c r="G126" s="41"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="118"/>
-      <c r="B127" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="C127" s="40" t="s">
-        <v>270</v>
+      <c r="A127" s="131"/>
+      <c r="B127" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C127" s="25" t="s">
+        <v>269</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
-      <c r="G127" s="63"/>
+      <c r="G127" s="41"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="118"/>
-      <c r="B128" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="C128" s="40" t="s">
-        <v>287</v>
+      <c r="A128" s="131"/>
+      <c r="B128" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>286</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
-      <c r="G128" s="63"/>
+      <c r="G128" s="41"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="118"/>
-      <c r="B129" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="C129" s="40" t="s">
-        <v>288</v>
+      <c r="A129" s="131"/>
+      <c r="B129" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C129" s="25" t="s">
+        <v>287</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
-      <c r="G129" s="63"/>
+      <c r="G129" s="41"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="118"/>
-      <c r="B130" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="C130" s="40" t="s">
-        <v>289</v>
+      <c r="A130" s="131"/>
+      <c r="B130" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C130" s="25" t="s">
+        <v>288</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
-      <c r="G130" s="63"/>
+      <c r="G130" s="41"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="118"/>
-      <c r="B131" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="C131" s="40" t="s">
-        <v>290</v>
+      <c r="A131" s="131"/>
+      <c r="B131" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C131" s="25" t="s">
+        <v>289</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
-      <c r="G131" s="63"/>
+      <c r="G131" s="41"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="118"/>
-      <c r="B132" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="C132" s="40" t="s">
-        <v>97</v>
+      <c r="A132" s="131"/>
+      <c r="B132" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C132" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
-      <c r="G132" s="63"/>
+      <c r="G132" s="41"/>
     </row>
     <row r="133" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="119"/>
-      <c r="B133" s="65" t="s">
+      <c r="A133" s="132"/>
+      <c r="B133" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="C133" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="D133" s="45"/>
+      <c r="E133" s="45"/>
+      <c r="F133" s="45"/>
+      <c r="G133" s="46"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="121" t="s">
+        <v>183</v>
+      </c>
+      <c r="B134" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="C133" s="120" t="s">
-        <v>129</v>
-      </c>
-      <c r="D133" s="68"/>
-      <c r="E133" s="68"/>
-      <c r="F133" s="68"/>
-      <c r="G133" s="69"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="115" t="s">
-        <v>184</v>
-      </c>
-      <c r="B134" s="53" t="s">
+      <c r="C134" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="D134" s="35"/>
+      <c r="E134" s="35"/>
+      <c r="F134" s="35"/>
+      <c r="G134" s="35"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="122"/>
+      <c r="B135" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C134" s="98" t="s">
-        <v>174</v>
-      </c>
-      <c r="D134" s="55"/>
-      <c r="E134" s="55"/>
-      <c r="F134" s="55"/>
-      <c r="G134" s="55"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="41"/>
-      <c r="B135" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="C135" s="36" t="s">
-        <v>111</v>
+      <c r="C135" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -4684,12 +4684,12 @@
       <c r="G135" s="4"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="41"/>
-      <c r="B136" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="C136" s="36" t="s">
-        <v>161</v>
+      <c r="A136" s="122"/>
+      <c r="B136" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C136" s="22" t="s">
+        <v>160</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -4697,12 +4697,12 @@
       <c r="G136" s="4"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="41"/>
-      <c r="B137" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="C137" s="36" t="s">
-        <v>185</v>
+      <c r="A137" s="122"/>
+      <c r="B137" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -4710,12 +4710,12 @@
       <c r="G137" s="4"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="41"/>
-      <c r="B138" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="C138" s="36" t="s">
-        <v>186</v>
+      <c r="A138" s="122"/>
+      <c r="B138" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C138" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -4723,367 +4723,367 @@
       <c r="G138" s="4"/>
     </row>
     <row r="139" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="121"/>
-      <c r="B139" s="78" t="s">
+      <c r="A139" s="123"/>
+      <c r="B139" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="C139" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D139" s="52"/>
+      <c r="E139" s="52"/>
+      <c r="F139" s="52"/>
+      <c r="G139" s="52"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="133" t="s">
+        <v>290</v>
+      </c>
+      <c r="B140" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="C139" s="105" t="s">
-        <v>97</v>
-      </c>
-      <c r="D139" s="80"/>
-      <c r="E139" s="80"/>
-      <c r="F139" s="80"/>
-      <c r="G139" s="80"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="124" t="s">
-        <v>291</v>
-      </c>
-      <c r="B140" s="57" t="s">
+      <c r="C140" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="D140" s="39"/>
+      <c r="E140" s="39"/>
+      <c r="F140" s="39"/>
+      <c r="G140" s="40"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="134"/>
+      <c r="B141" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C140" s="125" t="s">
+      <c r="C141" s="26" t="s">
         <v>268</v>
-      </c>
-      <c r="D140" s="60"/>
-      <c r="E140" s="60"/>
-      <c r="F140" s="60"/>
-      <c r="G140" s="61"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" s="126"/>
-      <c r="B141" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="C141" s="42" t="s">
-        <v>269</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
-      <c r="G141" s="63"/>
+      <c r="G141" s="41"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="126"/>
-      <c r="B142" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="C142" s="42" t="s">
-        <v>270</v>
+      <c r="A142" s="134"/>
+      <c r="B142" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C142" s="26" t="s">
+        <v>269</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
-      <c r="G142" s="63"/>
+      <c r="G142" s="41"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="126"/>
-      <c r="B143" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="C143" s="42" t="s">
-        <v>292</v>
+      <c r="A143" s="134"/>
+      <c r="B143" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C143" s="26" t="s">
+        <v>291</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
-      <c r="G143" s="63"/>
+      <c r="G143" s="41"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="126"/>
-      <c r="B144" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="C144" s="42" t="s">
-        <v>293</v>
+      <c r="A144" s="134"/>
+      <c r="B144" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C144" s="26" t="s">
+        <v>292</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
-      <c r="G144" s="63"/>
+      <c r="G144" s="41"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="126"/>
-      <c r="B145" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="C145" s="42" t="s">
-        <v>294</v>
+      <c r="A145" s="134"/>
+      <c r="B145" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C145" s="26" t="s">
+        <v>293</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
-      <c r="G145" s="63"/>
+      <c r="G145" s="41"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" s="126"/>
-      <c r="B146" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="C146" s="42" t="s">
-        <v>295</v>
+      <c r="A146" s="134"/>
+      <c r="B146" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>294</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
-      <c r="G146" s="63"/>
+      <c r="G146" s="41"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" s="126"/>
-      <c r="B147" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="C147" s="42" t="s">
-        <v>296</v>
+      <c r="A147" s="134"/>
+      <c r="B147" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C147" s="26" t="s">
+        <v>295</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
-      <c r="G147" s="63"/>
+      <c r="G147" s="41"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="126"/>
-      <c r="B148" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="C148" s="42" t="s">
-        <v>297</v>
+      <c r="A148" s="134"/>
+      <c r="B148" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C148" s="26" t="s">
+        <v>296</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
-      <c r="G148" s="63"/>
+      <c r="G148" s="41"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="126"/>
-      <c r="B149" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="C149" s="42" t="s">
-        <v>298</v>
+      <c r="A149" s="134"/>
+      <c r="B149" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C149" s="26" t="s">
+        <v>297</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
-      <c r="G149" s="63"/>
+      <c r="G149" s="41"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="126"/>
-      <c r="B150" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="C150" s="42" t="s">
-        <v>299</v>
+      <c r="A150" s="134"/>
+      <c r="B150" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C150" s="26" t="s">
+        <v>298</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
-      <c r="G150" s="63"/>
+      <c r="G150" s="41"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="126"/>
-      <c r="B151" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="C151" s="42" t="s">
-        <v>300</v>
+      <c r="A151" s="134"/>
+      <c r="B151" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C151" s="26" t="s">
+        <v>299</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
-      <c r="G151" s="63"/>
+      <c r="G151" s="41"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="126"/>
-      <c r="B152" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="C152" s="42" t="s">
-        <v>301</v>
+      <c r="A152" s="134"/>
+      <c r="B152" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C152" s="26" t="s">
+        <v>300</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
-      <c r="G152" s="63"/>
+      <c r="G152" s="41"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="126"/>
-      <c r="B153" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="C153" s="42" t="s">
-        <v>302</v>
+      <c r="A153" s="134"/>
+      <c r="B153" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C153" s="26" t="s">
+        <v>301</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
-      <c r="G153" s="63"/>
+      <c r="G153" s="41"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" s="126"/>
-      <c r="B154" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="C154" s="42" t="s">
-        <v>303</v>
+      <c r="A154" s="134"/>
+      <c r="B154" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C154" s="26" t="s">
+        <v>302</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
-      <c r="G154" s="63"/>
+      <c r="G154" s="41"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="126"/>
-      <c r="B155" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="C155" s="42" t="s">
-        <v>304</v>
+      <c r="A155" s="134"/>
+      <c r="B155" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C155" s="26" t="s">
+        <v>303</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
-      <c r="G155" s="63"/>
+      <c r="G155" s="41"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" s="126"/>
-      <c r="B156" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="C156" s="43" t="s">
-        <v>305</v>
+      <c r="A156" s="134"/>
+      <c r="B156" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C156" s="27" t="s">
+        <v>304</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
-      <c r="G156" s="63"/>
+      <c r="G156" s="41"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="126"/>
-      <c r="B157" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="C157" s="43" t="s">
-        <v>306</v>
+      <c r="A157" s="134"/>
+      <c r="B157" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C157" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
-      <c r="G157" s="63"/>
+      <c r="G157" s="41"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" s="126"/>
-      <c r="B158" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="C158" s="43" t="s">
-        <v>307</v>
+      <c r="A158" s="134"/>
+      <c r="B158" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C158" s="27" t="s">
+        <v>306</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
-      <c r="G158" s="63"/>
+      <c r="G158" s="41"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A159" s="126"/>
-      <c r="B159" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="C159" s="43" t="s">
-        <v>308</v>
+      <c r="A159" s="134"/>
+      <c r="B159" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C159" s="27" t="s">
+        <v>307</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
-      <c r="G159" s="63"/>
+      <c r="G159" s="41"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" s="126"/>
-      <c r="B160" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="C160" s="43" t="s">
-        <v>309</v>
+      <c r="A160" s="134"/>
+      <c r="B160" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C160" s="27" t="s">
+        <v>308</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
-      <c r="G160" s="63"/>
+      <c r="G160" s="41"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="126"/>
-      <c r="B161" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="C161" s="43" t="s">
-        <v>310</v>
+      <c r="A161" s="134"/>
+      <c r="B161" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C161" s="27" t="s">
+        <v>309</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
-      <c r="G161" s="63"/>
+      <c r="G161" s="41"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="126"/>
-      <c r="B162" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="C162" s="43" t="s">
-        <v>311</v>
+      <c r="A162" s="134"/>
+      <c r="B162" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C162" s="27" t="s">
+        <v>310</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
-      <c r="G162" s="63"/>
+      <c r="G162" s="41"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="126"/>
-      <c r="B163" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="C163" s="42" t="s">
-        <v>97</v>
+      <c r="A163" s="134"/>
+      <c r="B163" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C163" s="26" t="s">
+        <v>96</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
-      <c r="G163" s="63"/>
+      <c r="G163" s="41"/>
     </row>
     <row r="164" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="127"/>
-      <c r="B164" s="65" t="s">
+      <c r="A164" s="135"/>
+      <c r="B164" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="C164" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="D164" s="45"/>
+      <c r="E164" s="45"/>
+      <c r="F164" s="45"/>
+      <c r="G164" s="46"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" s="136" t="s">
+        <v>186</v>
+      </c>
+      <c r="B165" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="C164" s="128" t="s">
-        <v>129</v>
-      </c>
-      <c r="D164" s="68"/>
-      <c r="E164" s="68"/>
-      <c r="F164" s="68"/>
-      <c r="G164" s="69"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="122" t="s">
-        <v>187</v>
-      </c>
-      <c r="B165" s="53" t="s">
+      <c r="C165" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="D165" s="35"/>
+      <c r="E165" s="35"/>
+      <c r="F165" s="35"/>
+      <c r="G165" s="35"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" s="137"/>
+      <c r="B166" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C165" s="123" t="s">
-        <v>174</v>
-      </c>
-      <c r="D165" s="55"/>
-      <c r="E165" s="55"/>
-      <c r="F165" s="55"/>
-      <c r="G165" s="55"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="44"/>
-      <c r="B166" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="C166" s="45" t="s">
-        <v>161</v>
+      <c r="C166" s="28" t="s">
+        <v>160</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
@@ -5091,12 +5091,12 @@
       <c r="G166" s="4"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="44"/>
-      <c r="B167" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="C167" s="46" t="s">
-        <v>194</v>
+      <c r="A167" s="137"/>
+      <c r="B167" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C167" s="29" t="s">
+        <v>193</v>
       </c>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
@@ -5104,12 +5104,12 @@
       <c r="G167" s="4"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="44"/>
-      <c r="B168" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="C168" s="45" t="s">
-        <v>214</v>
+      <c r="A168" s="137"/>
+      <c r="B168" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C168" s="28" t="s">
+        <v>213</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -5117,12 +5117,12 @@
       <c r="G168" s="4"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" s="44"/>
-      <c r="B169" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="C169" s="45" t="s">
-        <v>215</v>
+      <c r="A169" s="137"/>
+      <c r="B169" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C169" s="28" t="s">
+        <v>214</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -5130,12 +5130,12 @@
       <c r="G169" s="4"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="44"/>
-      <c r="B170" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="C170" s="45" t="s">
-        <v>217</v>
+      <c r="A170" s="137"/>
+      <c r="B170" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C170" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
@@ -5143,12 +5143,12 @@
       <c r="G170" s="4"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="44"/>
-      <c r="B171" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="C171" s="45" t="s">
-        <v>233</v>
+      <c r="A171" s="137"/>
+      <c r="B171" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C171" s="28" t="s">
+        <v>232</v>
       </c>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
@@ -5156,12 +5156,12 @@
       <c r="G171" s="4"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="44"/>
-      <c r="B172" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="C172" s="45" t="s">
-        <v>234</v>
+      <c r="A172" s="137"/>
+      <c r="B172" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C172" s="28" t="s">
+        <v>233</v>
       </c>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
@@ -5169,12 +5169,12 @@
       <c r="G172" s="4"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="44"/>
-      <c r="B173" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="C173" s="45" t="s">
-        <v>232</v>
+      <c r="A173" s="137"/>
+      <c r="B173" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C173" s="28" t="s">
+        <v>231</v>
       </c>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
@@ -5182,12 +5182,12 @@
       <c r="G173" s="4"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="44"/>
-      <c r="B174" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="C174" s="45" t="s">
-        <v>231</v>
+      <c r="A174" s="137"/>
+      <c r="B174" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C174" s="28" t="s">
+        <v>230</v>
       </c>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
@@ -5195,12 +5195,12 @@
       <c r="G174" s="4"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="44"/>
-      <c r="B175" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="C175" s="45" t="s">
-        <v>195</v>
+      <c r="A175" s="137"/>
+      <c r="B175" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C175" s="28" t="s">
+        <v>194</v>
       </c>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -5208,12 +5208,12 @@
       <c r="G175" s="4"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="44"/>
-      <c r="B176" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="C176" s="45" t="s">
-        <v>196</v>
+      <c r="A176" s="137"/>
+      <c r="B176" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C176" s="28" t="s">
+        <v>195</v>
       </c>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
@@ -5221,12 +5221,12 @@
       <c r="G176" s="4"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="44"/>
-      <c r="B177" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="C177" s="45" t="s">
-        <v>78</v>
+      <c r="A177" s="137"/>
+      <c r="B177" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C177" s="28" t="s">
+        <v>77</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -5234,12 +5234,12 @@
       <c r="G177" s="4"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="44"/>
-      <c r="B178" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="C178" s="45" t="s">
-        <v>197</v>
+      <c r="A178" s="137"/>
+      <c r="B178" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C178" s="28" t="s">
+        <v>196</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
@@ -5247,12 +5247,12 @@
       <c r="G178" s="4"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="44"/>
-      <c r="B179" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="C179" s="45" t="s">
-        <v>198</v>
+      <c r="A179" s="137"/>
+      <c r="B179" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C179" s="28" t="s">
+        <v>197</v>
       </c>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -5260,276 +5260,276 @@
       <c r="G179" s="4"/>
     </row>
     <row r="180" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="129"/>
-      <c r="B180" s="78" t="s">
+      <c r="A180" s="138"/>
+      <c r="B180" s="50" t="s">
+        <v>351</v>
+      </c>
+      <c r="C180" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="D180" s="52"/>
+      <c r="E180" s="52"/>
+      <c r="F180" s="52"/>
+      <c r="G180" s="52"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" s="139" t="s">
+        <v>311</v>
+      </c>
+      <c r="B181" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="C180" s="130" t="s">
-        <v>208</v>
-      </c>
-      <c r="D180" s="80"/>
-      <c r="E180" s="80"/>
-      <c r="F180" s="80"/>
-      <c r="G180" s="80"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="133" t="s">
-        <v>312</v>
-      </c>
-      <c r="B181" s="57" t="s">
+      <c r="C181" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="D181" s="39"/>
+      <c r="E181" s="39"/>
+      <c r="F181" s="39"/>
+      <c r="G181" s="40"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" s="140"/>
+      <c r="B182" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="C181" s="93" t="s">
+      <c r="C182" s="16" t="s">
         <v>268</v>
-      </c>
-      <c r="D181" s="60"/>
-      <c r="E181" s="60"/>
-      <c r="F181" s="60"/>
-      <c r="G181" s="61"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="134"/>
-      <c r="B182" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="C182" s="29" t="s">
-        <v>269</v>
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
-      <c r="G182" s="63"/>
+      <c r="G182" s="41"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="134"/>
-      <c r="B183" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="C183" s="29" t="s">
-        <v>270</v>
+      <c r="A183" s="140"/>
+      <c r="B183" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C183" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
-      <c r="G183" s="63"/>
+      <c r="G183" s="41"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" s="134"/>
-      <c r="B184" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="C184" s="29" t="s">
-        <v>313</v>
+      <c r="A184" s="140"/>
+      <c r="B184" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C184" s="16" t="s">
+        <v>312</v>
       </c>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
-      <c r="G184" s="63"/>
+      <c r="G184" s="41"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="134"/>
-      <c r="B185" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="C185" s="29" t="s">
-        <v>293</v>
+      <c r="A185" s="140"/>
+      <c r="B185" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C185" s="16" t="s">
+        <v>292</v>
       </c>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
-      <c r="G185" s="63"/>
+      <c r="G185" s="41"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" s="134"/>
-      <c r="B186" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="C186" s="29" t="s">
-        <v>294</v>
+      <c r="A186" s="140"/>
+      <c r="B186" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C186" s="16" t="s">
+        <v>293</v>
       </c>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
-      <c r="G186" s="63"/>
+      <c r="G186" s="41"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" s="134"/>
-      <c r="B187" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="C187" s="29" t="s">
-        <v>295</v>
+      <c r="A187" s="140"/>
+      <c r="B187" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>294</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
-      <c r="G187" s="63"/>
+      <c r="G187" s="41"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" s="134"/>
-      <c r="B188" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="C188" s="29" t="s">
-        <v>296</v>
+      <c r="A188" s="140"/>
+      <c r="B188" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C188" s="16" t="s">
+        <v>295</v>
       </c>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
-      <c r="G188" s="63"/>
+      <c r="G188" s="41"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" s="134"/>
-      <c r="B189" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="C189" s="29" t="s">
-        <v>297</v>
+      <c r="A189" s="140"/>
+      <c r="B189" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C189" s="16" t="s">
+        <v>296</v>
       </c>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
-      <c r="G189" s="63"/>
+      <c r="G189" s="41"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" s="134"/>
-      <c r="B190" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="C190" s="29" t="s">
-        <v>298</v>
+      <c r="A190" s="140"/>
+      <c r="B190" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C190" s="16" t="s">
+        <v>297</v>
       </c>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
-      <c r="G190" s="63"/>
+      <c r="G190" s="41"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191" s="134"/>
-      <c r="B191" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="C191" s="29" t="s">
-        <v>299</v>
+      <c r="A191" s="140"/>
+      <c r="B191" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C191" s="16" t="s">
+        <v>298</v>
       </c>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
-      <c r="G191" s="63"/>
+      <c r="G191" s="41"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="134"/>
-      <c r="B192" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="C192" s="29" t="s">
-        <v>300</v>
+      <c r="A192" s="140"/>
+      <c r="B192" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C192" s="16" t="s">
+        <v>299</v>
       </c>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
-      <c r="G192" s="63"/>
+      <c r="G192" s="41"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="134"/>
-      <c r="B193" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="C193" s="29" t="s">
-        <v>301</v>
+      <c r="A193" s="140"/>
+      <c r="B193" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C193" s="16" t="s">
+        <v>300</v>
       </c>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
-      <c r="G193" s="63"/>
+      <c r="G193" s="41"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="134"/>
-      <c r="B194" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="C194" s="29" t="s">
-        <v>302</v>
+      <c r="A194" s="140"/>
+      <c r="B194" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C194" s="16" t="s">
+        <v>301</v>
       </c>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
-      <c r="G194" s="63"/>
+      <c r="G194" s="41"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="134"/>
-      <c r="B195" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="C195" s="29" t="s">
-        <v>303</v>
+      <c r="A195" s="140"/>
+      <c r="B195" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C195" s="16" t="s">
+        <v>302</v>
       </c>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
-      <c r="G195" s="63"/>
+      <c r="G195" s="41"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="134"/>
-      <c r="B196" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="C196" s="29" t="s">
-        <v>314</v>
+      <c r="A196" s="140"/>
+      <c r="B196" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C196" s="16" t="s">
+        <v>313</v>
       </c>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
-      <c r="G196" s="63"/>
+      <c r="G196" s="41"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="134"/>
-      <c r="B197" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="C197" s="29" t="s">
-        <v>129</v>
+      <c r="A197" s="140"/>
+      <c r="B197" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C197" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
-      <c r="G197" s="63"/>
+      <c r="G197" s="41"/>
     </row>
     <row r="198" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="135"/>
-      <c r="B198" s="65" t="s">
+      <c r="A198" s="141"/>
+      <c r="B198" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="C198" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D198" s="45"/>
+      <c r="E198" s="45"/>
+      <c r="F198" s="45"/>
+      <c r="G198" s="46"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" s="110" t="s">
+        <v>209</v>
+      </c>
+      <c r="B199" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="C198" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="D198" s="68"/>
-      <c r="E198" s="68"/>
-      <c r="F198" s="68"/>
-      <c r="G198" s="69"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="131" t="s">
-        <v>210</v>
-      </c>
-      <c r="B199" s="53" t="s">
+      <c r="C199" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="D199" s="35"/>
+      <c r="E199" s="35"/>
+      <c r="F199" s="35"/>
+      <c r="G199" s="35"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" s="111"/>
+      <c r="B200" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C199" s="132" t="s">
-        <v>174</v>
-      </c>
-      <c r="D199" s="55"/>
-      <c r="E199" s="55"/>
-      <c r="F199" s="55"/>
-      <c r="G199" s="55"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" s="47"/>
-      <c r="B200" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="C200" s="48" t="s">
-        <v>161</v>
+      <c r="C200" s="30" t="s">
+        <v>160</v>
       </c>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
@@ -5537,12 +5537,12 @@
       <c r="G200" s="4"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" s="47"/>
-      <c r="B201" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="C201" s="48" t="s">
-        <v>211</v>
+      <c r="A201" s="111"/>
+      <c r="B201" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C201" s="30" t="s">
+        <v>210</v>
       </c>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
@@ -5550,12 +5550,12 @@
       <c r="G201" s="4"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A202" s="47"/>
-      <c r="B202" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="C202" s="48" t="s">
-        <v>212</v>
+      <c r="A202" s="111"/>
+      <c r="B202" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C202" s="30" t="s">
+        <v>211</v>
       </c>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
@@ -5563,12 +5563,12 @@
       <c r="G202" s="4"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203" s="47"/>
-      <c r="B203" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="C203" s="48" t="s">
-        <v>213</v>
+      <c r="A203" s="111"/>
+      <c r="B203" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C203" s="30" t="s">
+        <v>212</v>
       </c>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
@@ -5576,12 +5576,12 @@
       <c r="G203" s="4"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" s="47"/>
-      <c r="B204" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="C204" s="48" t="s">
-        <v>216</v>
+      <c r="A204" s="111"/>
+      <c r="B204" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C204" s="30" t="s">
+        <v>215</v>
       </c>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
@@ -5589,12 +5589,12 @@
       <c r="G204" s="4"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" s="47"/>
-      <c r="B205" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="C205" s="48" t="s">
-        <v>218</v>
+      <c r="A205" s="111"/>
+      <c r="B205" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C205" s="30" t="s">
+        <v>217</v>
       </c>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
@@ -5602,12 +5602,12 @@
       <c r="G205" s="4"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" s="47"/>
-      <c r="B206" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="C206" s="48" t="s">
-        <v>195</v>
+      <c r="A206" s="111"/>
+      <c r="B206" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C206" s="30" t="s">
+        <v>194</v>
       </c>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
@@ -5615,12 +5615,12 @@
       <c r="G206" s="4"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207" s="47"/>
-      <c r="B207" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="C207" s="48" t="s">
-        <v>230</v>
+      <c r="A207" s="111"/>
+      <c r="B207" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C207" s="30" t="s">
+        <v>229</v>
       </c>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -5628,12 +5628,12 @@
       <c r="G207" s="4"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" s="47"/>
-      <c r="B208" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="C208" s="48" t="s">
-        <v>234</v>
+      <c r="A208" s="111"/>
+      <c r="B208" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C208" s="30" t="s">
+        <v>233</v>
       </c>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
@@ -5641,12 +5641,12 @@
       <c r="G208" s="4"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" s="47"/>
-      <c r="B209" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="C209" s="48" t="s">
-        <v>231</v>
+      <c r="A209" s="111"/>
+      <c r="B209" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C209" s="30" t="s">
+        <v>230</v>
       </c>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
@@ -5654,12 +5654,12 @@
       <c r="G209" s="4"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" s="47"/>
-      <c r="B210" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="C210" s="48" t="s">
-        <v>232</v>
+      <c r="A210" s="111"/>
+      <c r="B210" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C210" s="30" t="s">
+        <v>231</v>
       </c>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
@@ -5667,12 +5667,12 @@
       <c r="G210" s="4"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" s="47"/>
-      <c r="B211" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="C211" s="48" t="s">
-        <v>219</v>
+      <c r="A211" s="111"/>
+      <c r="B211" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C211" s="30" t="s">
+        <v>218</v>
       </c>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
@@ -5680,12 +5680,12 @@
       <c r="G211" s="4"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" s="47"/>
-      <c r="B212" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="C212" s="48" t="s">
-        <v>93</v>
+      <c r="A212" s="111"/>
+      <c r="B212" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C212" s="30" t="s">
+        <v>92</v>
       </c>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
@@ -5693,12 +5693,12 @@
       <c r="G212" s="4"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A213" s="47"/>
-      <c r="B213" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="C213" s="48" t="s">
-        <v>220</v>
+      <c r="A213" s="111"/>
+      <c r="B213" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C213" s="30" t="s">
+        <v>219</v>
       </c>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
@@ -5706,12 +5706,12 @@
       <c r="G213" s="4"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" s="47"/>
-      <c r="B214" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="C214" s="48" t="s">
-        <v>221</v>
+      <c r="A214" s="111"/>
+      <c r="B214" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C214" s="30" t="s">
+        <v>220</v>
       </c>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
@@ -5719,12 +5719,12 @@
       <c r="G214" s="4"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215" s="47"/>
-      <c r="B215" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="C215" s="48" t="s">
-        <v>222</v>
+      <c r="A215" s="111"/>
+      <c r="B215" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C215" s="30" t="s">
+        <v>221</v>
       </c>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -5732,12 +5732,12 @@
       <c r="G215" s="4"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216" s="47"/>
-      <c r="B216" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="C216" s="48" t="s">
-        <v>196</v>
+      <c r="A216" s="111"/>
+      <c r="B216" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C216" s="30" t="s">
+        <v>195</v>
       </c>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
@@ -5745,159 +5745,159 @@
       <c r="G216" s="4"/>
     </row>
     <row r="217" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="136"/>
-      <c r="B217" s="78" t="s">
+      <c r="A217" s="112"/>
+      <c r="B217" s="50" t="s">
+        <v>388</v>
+      </c>
+      <c r="C217" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="D217" s="52"/>
+      <c r="E217" s="52"/>
+      <c r="F217" s="52"/>
+      <c r="G217" s="52"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218" s="142" t="s">
+        <v>314</v>
+      </c>
+      <c r="B218" s="36" t="s">
         <v>389</v>
       </c>
-      <c r="C217" s="137" t="s">
-        <v>223</v>
-      </c>
-      <c r="D217" s="80"/>
-      <c r="E217" s="80"/>
-      <c r="F217" s="80"/>
-      <c r="G217" s="80"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A218" s="140" t="s">
-        <v>315</v>
-      </c>
-      <c r="B218" s="57" t="s">
+      <c r="C218" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="D218" s="39"/>
+      <c r="E218" s="39"/>
+      <c r="F218" s="39"/>
+      <c r="G218" s="40"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219" s="143"/>
+      <c r="B219" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="C218" s="141" t="s">
+      <c r="C219" s="22" t="s">
         <v>268</v>
-      </c>
-      <c r="D218" s="60"/>
-      <c r="E218" s="60"/>
-      <c r="F218" s="60"/>
-      <c r="G218" s="61"/>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219" s="142"/>
-      <c r="B219" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="C219" s="36" t="s">
-        <v>269</v>
       </c>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
-      <c r="G219" s="63"/>
+      <c r="G219" s="41"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" s="142"/>
-      <c r="B220" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="C220" s="36" t="s">
-        <v>270</v>
+      <c r="A220" s="143"/>
+      <c r="B220" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C220" s="22" t="s">
+        <v>269</v>
       </c>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
-      <c r="G220" s="63"/>
+      <c r="G220" s="41"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221" s="142"/>
-      <c r="B221" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="C221" s="36" t="s">
-        <v>316</v>
+      <c r="A221" s="143"/>
+      <c r="B221" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C221" s="22" t="s">
+        <v>315</v>
       </c>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
-      <c r="G221" s="63"/>
+      <c r="G221" s="41"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" s="142"/>
-      <c r="B222" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="C222" s="36" t="s">
-        <v>317</v>
+      <c r="A222" s="143"/>
+      <c r="B222" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C222" s="22" t="s">
+        <v>316</v>
       </c>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
-      <c r="G222" s="63"/>
+      <c r="G222" s="41"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A223" s="142"/>
-      <c r="B223" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="C223" s="49" t="s">
-        <v>318</v>
+      <c r="A223" s="143"/>
+      <c r="B223" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C223" s="31" t="s">
+        <v>317</v>
       </c>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
-      <c r="G223" s="63"/>
+      <c r="G223" s="41"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A224" s="142"/>
-      <c r="B224" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="C224" s="36" t="s">
-        <v>319</v>
+      <c r="A224" s="143"/>
+      <c r="B224" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C224" s="22" t="s">
+        <v>318</v>
       </c>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
-      <c r="G224" s="63"/>
+      <c r="G224" s="41"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A225" s="142"/>
-      <c r="B225" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="C225" s="36" t="s">
-        <v>97</v>
+      <c r="A225" s="143"/>
+      <c r="B225" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C225" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
-      <c r="G225" s="63"/>
+      <c r="G225" s="41"/>
     </row>
     <row r="226" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="143"/>
-      <c r="B226" s="65" t="s">
+      <c r="A226" s="144"/>
+      <c r="B226" s="42" t="s">
+        <v>397</v>
+      </c>
+      <c r="C226" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="D226" s="45"/>
+      <c r="E226" s="45"/>
+      <c r="F226" s="45"/>
+      <c r="G226" s="46"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227" s="113" t="s">
+        <v>223</v>
+      </c>
+      <c r="B227" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="C226" s="144" t="s">
-        <v>129</v>
-      </c>
-      <c r="D226" s="68"/>
-      <c r="E226" s="68"/>
-      <c r="F226" s="68"/>
-      <c r="G226" s="69"/>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A227" s="138" t="s">
+      <c r="C227" s="77" t="s">
         <v>224</v>
       </c>
-      <c r="B227" s="53" t="s">
+      <c r="D227" s="35"/>
+      <c r="E227" s="35"/>
+      <c r="F227" s="35"/>
+      <c r="G227" s="35"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228" s="114"/>
+      <c r="B228" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C227" s="139" t="s">
+      <c r="C228" s="32" t="s">
         <v>225</v>
-      </c>
-      <c r="D227" s="55"/>
-      <c r="E227" s="55"/>
-      <c r="F227" s="55"/>
-      <c r="G227" s="55"/>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A228" s="50"/>
-      <c r="B228" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="C228" s="51" t="s">
-        <v>226</v>
       </c>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -5905,12 +5905,12 @@
       <c r="G228" s="4"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A229" s="50"/>
-      <c r="B229" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="C229" s="51" t="s">
-        <v>227</v>
+      <c r="A229" s="114"/>
+      <c r="B229" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C229" s="32" t="s">
+        <v>226</v>
       </c>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -5918,12 +5918,12 @@
       <c r="G229" s="4"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A230" s="50"/>
-      <c r="B230" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="C230" s="51" t="s">
-        <v>228</v>
+      <c r="A230" s="114"/>
+      <c r="B230" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C230" s="32" t="s">
+        <v>227</v>
       </c>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -5931,12 +5931,12 @@
       <c r="G230" s="4"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A231" s="50"/>
-      <c r="B231" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="C231" s="51" t="s">
-        <v>229</v>
+      <c r="A231" s="114"/>
+      <c r="B231" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C231" s="32" t="s">
+        <v>228</v>
       </c>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -5944,12 +5944,12 @@
       <c r="G231" s="4"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A232" s="50"/>
-      <c r="B232" s="18" t="s">
-        <v>404</v>
-      </c>
-      <c r="C232" s="51" t="s">
-        <v>158</v>
+      <c r="A232" s="114"/>
+      <c r="B232" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C232" s="32" t="s">
+        <v>157</v>
       </c>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -5957,12 +5957,12 @@
       <c r="G232" s="4"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A233" s="50"/>
-      <c r="B233" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="C233" s="51" t="s">
-        <v>196</v>
+      <c r="A233" s="114"/>
+      <c r="B233" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C233" s="32" t="s">
+        <v>195</v>
       </c>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -5971,6 +5971,25 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A199:A217"/>
+    <mergeCell ref="A227:A233"/>
+    <mergeCell ref="A78:A87"/>
+    <mergeCell ref="A98:A104"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="A134:A139"/>
+    <mergeCell ref="A88:A97"/>
+    <mergeCell ref="A105:A119"/>
+    <mergeCell ref="A125:A133"/>
+    <mergeCell ref="A140:A164"/>
+    <mergeCell ref="A165:A180"/>
+    <mergeCell ref="A181:A198"/>
+    <mergeCell ref="A218:A226"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
     <mergeCell ref="A57:A66"/>
     <mergeCell ref="A67:A77"/>
     <mergeCell ref="A8:A20"/>
@@ -5984,25 +6003,6 @@
     <mergeCell ref="A24:A34"/>
     <mergeCell ref="A35:A45"/>
     <mergeCell ref="A46:A56"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A199:A217"/>
-    <mergeCell ref="A227:A233"/>
-    <mergeCell ref="A78:A87"/>
-    <mergeCell ref="A98:A104"/>
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="A134:A139"/>
-    <mergeCell ref="A88:A97"/>
-    <mergeCell ref="A105:A119"/>
-    <mergeCell ref="A125:A133"/>
-    <mergeCell ref="A140:A164"/>
-    <mergeCell ref="A165:A180"/>
-    <mergeCell ref="A181:A198"/>
-    <mergeCell ref="A218:A226"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -6011,19 +6011,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="Control 1">
+        <control shapeId="1026" r:id="rId4" name="Control 2">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>9113520</xdr:colOff>
+                <xdr:row>48</xdr:row>
+                <xdr:rowOff>68580</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1188720</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:colOff>9654540</xdr:colOff>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
@@ -6031,24 +6031,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="Control 1"/>
+        <control shapeId="1026" r:id="rId4" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="Control 2">
+        <control shapeId="1025" r:id="rId6" name="Control 1">
           <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>9113520</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>48</xdr:row>
+                <xdr:rowOff>68580</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>9883140</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:colOff>830580</xdr:colOff>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
@@ -6056,7 +6056,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="Control 2"/>
+        <control shapeId="1025" r:id="rId6" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
